--- a/Cinema/out.xlsx
+++ b/Cinema/out.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -399,8 +399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,7 +472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>

--- a/Cinema/out.xlsx
+++ b/Cinema/out.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5AC7CF-FC2D-418D-AB63-9CE495CEC401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="31680" yWindow="2355" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,16 +62,16 @@
     <t>Negulescu</t>
   </si>
   <si>
-    <t>stefan.negulescu@gmail.com</t>
-  </si>
-  <si>
     <t>0722111333</t>
+  </si>
+  <si>
+    <t>hirneagabriel2000@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -396,10 +397,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -469,11 +470,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,10 +506,10 @@
         <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -543,7 +544,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
